--- a/grupos/5ASV - Estadisticos 20211.xlsx
+++ b/grupos/5ASV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="144">
   <si>
     <t>Materia</t>
   </si>
@@ -182,19 +182,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
     <t>Jiménez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Elio</t>
   </si>
   <si>
     <t>NC</t>
@@ -941,13 +941,13 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -995,13 +995,13 @@
         <v>-1</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -1018,13 +1018,13 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -1072,13 +1072,13 @@
         <v>-1</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V5">
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1092,22 +1092,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1146,22 +1146,22 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1169,22 +1169,22 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1223,22 +1223,22 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1246,22 +1246,22 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1300,22 +1300,22 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1326,19 +1326,19 @@
         <v>-1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1380,19 +1380,19 @@
         <v>-1</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -1457,13 +1457,13 @@
         <v>-1</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V10">
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1477,22 +1477,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>-1</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1531,22 +1531,22 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1554,22 +1554,22 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1608,22 +1608,22 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V12">
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1631,22 +1631,22 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1685,22 +1685,22 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1708,22 +1708,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1762,22 +1762,22 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1785,22 +1785,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1839,22 +1839,22 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1862,22 +1862,22 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1916,22 +1916,22 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1939,22 +1939,22 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1993,22 +1993,22 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2019,13 +2019,13 @@
         <v>-1</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -2073,13 +2073,13 @@
         <v>-1</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2093,22 +2093,22 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2147,22 +2147,22 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V19">
         <v>-1</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2173,13 +2173,13 @@
         <v>-1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>-1</v>
@@ -2227,13 +2227,13 @@
         <v>-1</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2247,22 +2247,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2301,22 +2301,22 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2327,13 +2327,13 @@
         <v>-1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>-1</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -2381,13 +2381,13 @@
         <v>-1</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2401,22 +2401,22 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2455,22 +2455,22 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2478,19 +2478,19 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2532,19 +2532,19 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2558,19 +2558,19 @@
         <v>-1</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2612,19 +2612,19 @@
         <v>-1</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2632,22 +2632,22 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2686,22 +2686,22 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2709,22 +2709,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2763,22 +2763,22 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2786,22 +2786,22 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2840,22 +2840,22 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2863,22 +2863,22 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2917,22 +2917,22 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2940,22 +2940,22 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2994,22 +2994,22 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3020,19 +3020,19 @@
         <v>-1</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>-1</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3074,19 +3074,19 @@
         <v>-1</v>
       </c>
       <c r="U31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3097,13 +3097,13 @@
         <v>-1</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>-1</v>
@@ -3151,13 +3151,13 @@
         <v>-1</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3174,13 +3174,13 @@
         <v>-1</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>-1</v>
@@ -3228,13 +3228,13 @@
         <v>-1</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3251,13 +3251,13 @@
         <v>-1</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>-1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>-1</v>
@@ -3305,13 +3305,13 @@
         <v>-1</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V34">
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3328,13 +3328,13 @@
         <v>-1</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>-1</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>-1</v>
@@ -3382,13 +3382,13 @@
         <v>-1</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3402,22 +3402,22 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <v>-1</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -3456,22 +3456,22 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -3539,27 +3539,30 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
       <c r="I2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3568,27 +3571,30 @@
         <v>33</v>
       </c>
       <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>57.58</v>
+      </c>
+      <c r="G3">
+        <v>42.42</v>
+      </c>
+      <c r="H3">
+        <v>6.4</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>33</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3597,85 +3603,94 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>60.61</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>8.199999999999999</v>
+      </c>
       <c r="I4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>33</v>
       </c>
       <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>60.61</v>
+      </c>
+      <c r="G5">
+        <v>39.39</v>
+      </c>
+      <c r="H5">
+        <v>5.8</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>33</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.09</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -3684,22 +3699,25 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
       <c r="I7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3776,7 +3794,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3796,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3816,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3836,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3856,7 +3874,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3876,7 +3894,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3896,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3916,7 +3934,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3936,7 +3954,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3956,7 +3974,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3976,7 +3994,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3996,7 +4014,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4016,7 +4034,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4036,7 +4054,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4056,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4076,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4096,7 +4114,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4116,7 +4134,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4136,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4156,7 +4174,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4176,7 +4194,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4196,7 +4214,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4216,7 +4234,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4236,7 +4254,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4256,7 +4274,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4276,7 +4294,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4296,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4316,7 +4334,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4336,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4356,7 +4374,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4376,7 +4394,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4396,7 +4414,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4416,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4436,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4456,7 +4474,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4476,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4496,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4516,7 +4534,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4536,7 +4554,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4556,7 +4574,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4576,7 +4594,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4596,7 +4614,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4616,7 +4634,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4636,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4656,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4676,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4696,7 +4714,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4716,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4736,7 +4754,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4756,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4776,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4796,7 +4814,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4816,7 +4834,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4836,7 +4854,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4856,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4876,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4896,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4916,7 +4934,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4936,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4956,7 +4974,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4976,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4996,7 +5014,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5016,7 +5034,7 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5036,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5056,7 +5074,7 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5076,7 +5094,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5096,7 +5114,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5116,7 +5134,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5136,7 +5154,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5156,7 +5174,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5176,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5196,7 +5214,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5216,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5236,7 +5254,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5256,7 +5274,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5276,7 +5294,7 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5296,7 +5314,7 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5316,7 +5334,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5336,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5356,7 +5374,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5376,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5396,7 +5414,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5416,7 +5434,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5436,7 +5454,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5456,7 +5474,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5476,7 +5494,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5496,7 +5514,7 @@
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5516,7 +5534,7 @@
         <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5536,7 +5554,7 @@
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5556,7 +5574,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5576,7 +5594,7 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5596,7 +5614,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5616,7 +5634,7 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5636,7 +5654,7 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5656,7 +5674,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5676,7 +5694,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5696,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5716,7 +5734,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5736,7 +5754,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5756,7 +5774,7 @@
         <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5776,7 +5794,7 @@
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5796,7 +5814,7 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5816,7 +5834,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5836,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5856,7 +5874,7 @@
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5876,7 +5894,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5896,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5916,7 +5934,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5936,7 +5954,7 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5956,7 +5974,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5976,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5996,7 +6014,7 @@
         <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6016,7 +6034,7 @@
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6036,7 +6054,7 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6056,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6076,7 +6094,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6096,7 +6114,7 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6116,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6136,7 +6154,7 @@
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6156,7 +6174,7 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6176,7 +6194,7 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6196,7 +6214,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6216,7 +6234,7 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6236,7 +6254,7 @@
         <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6256,7 +6274,7 @@
         <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6276,7 +6294,7 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6296,7 +6314,7 @@
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6316,7 +6334,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6336,7 +6354,7 @@
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6356,7 +6374,7 @@
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6376,7 +6394,7 @@
         <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6396,7 +6414,7 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6416,7 +6434,7 @@
         <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6436,7 +6454,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6456,7 +6474,7 @@
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6476,7 +6494,7 @@
         <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6496,7 +6514,7 @@
         <v>8</v>
       </c>
       <c r="F139" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6516,7 +6534,7 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6536,7 +6554,7 @@
         <v>5</v>
       </c>
       <c r="F141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6556,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6576,7 +6594,7 @@
         <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6596,7 +6614,7 @@
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6616,7 +6634,7 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6636,7 +6654,7 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6656,7 +6674,7 @@
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6676,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6696,7 +6714,7 @@
         <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6716,7 +6734,7 @@
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6736,7 +6754,7 @@
         <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6756,7 +6774,7 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6776,7 +6794,7 @@
         <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6796,7 +6814,7 @@
         <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6816,7 +6834,7 @@
         <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6836,7 +6854,7 @@
         <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6856,7 +6874,7 @@
         <v>8</v>
       </c>
       <c r="F157" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6876,7 +6894,7 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6896,7 +6914,7 @@
         <v>5</v>
       </c>
       <c r="F159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6916,7 +6934,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6936,7 +6954,7 @@
         <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6956,7 +6974,7 @@
         <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6976,7 +6994,7 @@
         <v>8</v>
       </c>
       <c r="F163" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6996,7 +7014,7 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7016,7 +7034,7 @@
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7036,7 +7054,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7056,7 +7074,7 @@
         <v>9</v>
       </c>
       <c r="F167" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7076,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7096,7 +7114,7 @@
         <v>8</v>
       </c>
       <c r="F169" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7116,7 +7134,7 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7136,7 +7154,7 @@
         <v>5</v>
       </c>
       <c r="F171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7156,7 +7174,7 @@
         <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7176,7 +7194,7 @@
         <v>9</v>
       </c>
       <c r="F173" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7196,7 +7214,7 @@
         <v>6</v>
       </c>
       <c r="F174" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7216,7 +7234,7 @@
         <v>8</v>
       </c>
       <c r="F175" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7236,7 +7254,7 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7256,7 +7274,7 @@
         <v>5</v>
       </c>
       <c r="F177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7276,7 +7294,7 @@
         <v>7</v>
       </c>
       <c r="F178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7296,7 +7314,7 @@
         <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7316,7 +7334,7 @@
         <v>6</v>
       </c>
       <c r="F180" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7336,7 +7354,7 @@
         <v>8</v>
       </c>
       <c r="F181" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7356,7 +7374,7 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7376,7 +7394,7 @@
         <v>5</v>
       </c>
       <c r="F183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7396,7 +7414,7 @@
         <v>7</v>
       </c>
       <c r="F184" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7416,7 +7434,7 @@
         <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7436,7 +7454,7 @@
         <v>6</v>
       </c>
       <c r="F186" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7456,7 +7474,7 @@
         <v>8</v>
       </c>
       <c r="F187" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7476,7 +7494,7 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7496,7 +7514,7 @@
         <v>5</v>
       </c>
       <c r="F189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7516,7 +7534,7 @@
         <v>7</v>
       </c>
       <c r="F190" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7536,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="F191" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7556,7 +7574,7 @@
         <v>6</v>
       </c>
       <c r="F192" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7576,7 +7594,7 @@
         <v>8</v>
       </c>
       <c r="F193" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7596,7 +7614,7 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7616,7 +7634,7 @@
         <v>5</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7636,7 +7654,7 @@
         <v>7</v>
       </c>
       <c r="F196" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7656,7 +7674,7 @@
         <v>9</v>
       </c>
       <c r="F197" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7676,7 +7694,7 @@
         <v>6</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7696,7 +7714,7 @@
         <v>8</v>
       </c>
       <c r="F199" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8319,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8334,6 +8352,604 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920433</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920433</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920258</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920258</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920257</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920348</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920348</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920407</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920414</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920414</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920253</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920263</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920266</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920403</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920405</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920406</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5ASV - Estadisticos 20211.xlsx
+++ b/grupos/5ASV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="144">
   <si>
     <t>Materia</t>
   </si>
@@ -215,6 +215,147 @@
     <t>BONILLA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>LLAME</t>
+  </si>
+  <si>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MONSALVO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANTILLANA</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>JULIO GABRIEL</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>DIEGO ABDEL JARIN</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ANGEL GERARDO</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>JESUS JOAN</t>
+  </si>
+  <si>
+    <t>RICARDO ISIDRO</t>
+  </si>
+  <si>
+    <t>CESAR JAHIR</t>
+  </si>
+  <si>
+    <t>CESAR GAEL</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
@@ -224,120 +365,39 @@
     <t>CORDOVA</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>LLAME</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MANI</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
     <t>MIXCOHUA</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>MONSALVO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
     <t>ROJAS</t>
   </si>
   <si>
     <t>ROMAN</t>
   </si>
   <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANTILLANA</t>
-  </si>
-  <si>
     <t>TREJO</t>
   </si>
   <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
     <t>GUIZA</t>
   </si>
   <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
     <t>GALEOTE</t>
   </si>
   <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
     <t>TZOMPAXTLE</t>
   </si>
   <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZAPATA</t>
-  </si>
-  <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
     <t>CASTELLANOS</t>
   </si>
   <si>
-    <t>QUINTERO</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -347,18 +407,9 @@
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>PINO</t>
-  </si>
-  <si>
     <t>LUENGAS</t>
   </si>
   <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
     <t>BRANDON AXEL</t>
   </si>
   <si>
@@ -368,48 +419,18 @@
     <t>ANGELA ALESSANDRA</t>
   </si>
   <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>JULIO GABRIEL</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>ERICA</t>
-  </si>
-  <si>
     <t>ZAYRA JOSELIN</t>
   </si>
   <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
     <t>ALEXIS</t>
   </si>
   <si>
-    <t>DIEGO ABDEL JARIN</t>
-  </si>
-  <si>
     <t>WENDY</t>
   </si>
   <si>
-    <t>AIDA</t>
-  </si>
-  <si>
     <t>CESAR</t>
   </si>
   <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
     <t>LETICIA</t>
   </si>
   <si>
@@ -419,12 +440,6 @@
     <t>ALFREDO</t>
   </si>
   <si>
-    <t>ANGEL GERARDO</t>
-  </si>
-  <si>
-    <t>EDUARDO ULISES</t>
-  </si>
-  <si>
     <t>JELIN JANET</t>
   </si>
   <si>
@@ -432,21 +447,6 @@
   </si>
   <si>
     <t>KARLA DENISSE</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>JESUS JOAN</t>
-  </si>
-  <si>
-    <t>RICARDO ISIDRO</t>
-  </si>
-  <si>
-    <t>CESAR JAHIR</t>
-  </si>
-  <si>
-    <t>CESAR GAEL</t>
   </si>
   <si>
     <t>ELIZABETH</t>
@@ -1104,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -1158,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1258,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1566,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1620,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <v>7</v>
@@ -1643,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1697,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -1928,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
         <v>7</v>
@@ -1951,7 +1951,7 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -2005,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>10</v>
@@ -2259,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -2313,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y21">
         <v>10</v>
@@ -2493,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2547,7 +2547,7 @@
         <v>9</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2567,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>9</v>
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y25">
         <v>9</v>
@@ -2644,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2698,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>10</v>
@@ -2798,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -2852,7 +2852,7 @@
         <v>5</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>10</v>
@@ -2875,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -2929,7 +2929,7 @@
         <v>8</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>7</v>
@@ -2952,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G30">
         <v>9</v>
@@ -3006,7 +3006,7 @@
         <v>7</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <v>9</v>
@@ -3029,7 +3029,7 @@
         <v>6</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -3083,7 +3083,7 @@
         <v>6</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y31">
         <v>7</v>
@@ -3106,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -3160,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3183,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3414,7 +3414,7 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -3468,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y36">
         <v>7</v>
@@ -3539,25 +3539,25 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>9.09</v>
+        <v>39.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>21.21</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>90.91</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3699,13 +3699,13 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>66.67</v>
+        <v>69.7</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>33.33</v>
+        <v>30.3</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3727,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3765,10 +3765,10 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -3785,10 +3785,10 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -3805,10 +3805,10 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -3825,10 +3825,10 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -3839,42 +3839,42 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920246</v>
+        <v>19330051920247</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920246</v>
+        <v>19330051920247</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3885,16 +3885,16 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3905,50 +3905,50 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920247</v>
+        <v>19330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920247</v>
+        <v>19330051920251</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -3959,96 +3959,96 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920247</v>
+        <v>19330051920252</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920247</v>
+        <v>19330051920252</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920248</v>
+        <v>19330051920252</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920248</v>
+        <v>19330051920252</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920248</v>
+        <v>19330051920253</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -4059,76 +4059,76 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920248</v>
+        <v>19330051920433</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920248</v>
+        <v>19330051920256</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920248</v>
+        <v>19330051920258</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920249</v>
+        <v>19330051920259</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -4139,16 +4139,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920249</v>
+        <v>19330051920259</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -4159,3562 +4159,502 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920249</v>
+        <v>19330051920259</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920249</v>
+        <v>19330051920260</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920249</v>
+        <v>19330051920260</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920249</v>
+        <v>19330051920261</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920250</v>
+        <v>19330051920261</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920250</v>
+        <v>19330051920261</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920250</v>
+        <v>19330051920265</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920250</v>
+        <v>19330051920265</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920250</v>
+        <v>19330051920265</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920250</v>
+        <v>19330051920265</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920251</v>
+        <v>19330051920400</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920251</v>
+        <v>19330051920403</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920251</v>
+        <v>19330051920407</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920251</v>
+        <v>19330051920408</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920251</v>
+        <v>19330051920408</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920251</v>
+        <v>19330051920409</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920252</v>
+        <v>19330051920409</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920252</v>
+        <v>19330051920411</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920252</v>
+        <v>19330051920411</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920252</v>
+        <v>19330051920411</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920252</v>
+        <v>19330051920411</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920252</v>
+        <v>19330051920412</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920253</v>
+        <v>19330051920412</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920253</v>
+        <v>19330051920412</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920253</v>
+        <v>19330051920412</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920253</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920253</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920253</v>
-      </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920433</v>
-      </c>
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920433</v>
-      </c>
-      <c r="B51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920433</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920433</v>
-      </c>
-      <c r="B53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920433</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920433</v>
-      </c>
-      <c r="B55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920256</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920256</v>
-      </c>
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920256</v>
-      </c>
-      <c r="B58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920256</v>
-      </c>
-      <c r="B59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920256</v>
-      </c>
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920256</v>
-      </c>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920254</v>
-      </c>
-      <c r="B62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920254</v>
-      </c>
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920254</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920254</v>
-      </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920254</v>
-      </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920254</v>
-      </c>
-      <c r="B67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920258</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920258</v>
-      </c>
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920258</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920258</v>
-      </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" t="s">
-        <v>122</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920258</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920258</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920257</v>
-      </c>
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920257</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920257</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920257</v>
-      </c>
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920257</v>
-      </c>
-      <c r="B78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920257</v>
-      </c>
-      <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920259</v>
-      </c>
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920259</v>
-      </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920259</v>
-      </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920259</v>
-      </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920259</v>
-      </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D84" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920259</v>
-      </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920255</v>
-      </c>
-      <c r="B86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920255</v>
-      </c>
-      <c r="B87" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920255</v>
-      </c>
-      <c r="B88" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920255</v>
-      </c>
-      <c r="B89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" t="s">
-        <v>125</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920255</v>
-      </c>
-      <c r="B90" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920255</v>
-      </c>
-      <c r="B91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920260</v>
-      </c>
-      <c r="B92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920260</v>
-      </c>
-      <c r="B93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" t="s">
-        <v>126</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920260</v>
-      </c>
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920260</v>
-      </c>
-      <c r="B95" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920260</v>
-      </c>
-      <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D96" t="s">
-        <v>126</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920260</v>
-      </c>
-      <c r="B97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920263</v>
-      </c>
-      <c r="B98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" t="s">
-        <v>89</v>
-      </c>
-      <c r="D98" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920263</v>
-      </c>
-      <c r="B99" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920263</v>
-      </c>
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920263</v>
-      </c>
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" t="s">
-        <v>89</v>
-      </c>
-      <c r="D101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920263</v>
-      </c>
-      <c r="B102" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" t="s">
-        <v>89</v>
-      </c>
-      <c r="D102" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920263</v>
-      </c>
-      <c r="B103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" t="s">
-        <v>127</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920261</v>
-      </c>
-      <c r="B104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920261</v>
-      </c>
-      <c r="B105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" t="s">
-        <v>102</v>
-      </c>
-      <c r="D105" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920261</v>
-      </c>
-      <c r="B106" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920261</v>
-      </c>
-      <c r="B107" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" t="s">
-        <v>102</v>
-      </c>
-      <c r="D107" t="s">
-        <v>128</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920261</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" t="s">
-        <v>128</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920261</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" t="s">
-        <v>102</v>
-      </c>
-      <c r="D109" t="s">
-        <v>128</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920265</v>
-      </c>
-      <c r="B110" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" t="s">
-        <v>71</v>
-      </c>
-      <c r="D110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920265</v>
-      </c>
-      <c r="B111" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920265</v>
-      </c>
-      <c r="B112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" t="s">
-        <v>129</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920265</v>
-      </c>
-      <c r="B113" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" t="s">
-        <v>129</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920265</v>
-      </c>
-      <c r="B114" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" t="s">
-        <v>71</v>
-      </c>
-      <c r="D114" t="s">
-        <v>129</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920265</v>
-      </c>
-      <c r="B115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" t="s">
-        <v>71</v>
-      </c>
-      <c r="D115" t="s">
-        <v>129</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920267</v>
-      </c>
-      <c r="B116" t="s">
-        <v>78</v>
-      </c>
-      <c r="C116" t="s">
-        <v>103</v>
-      </c>
-      <c r="D116" t="s">
-        <v>130</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920267</v>
-      </c>
-      <c r="B117" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" t="s">
-        <v>103</v>
-      </c>
-      <c r="D117" t="s">
-        <v>130</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920267</v>
-      </c>
-      <c r="B118" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" t="s">
-        <v>103</v>
-      </c>
-      <c r="D118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920267</v>
-      </c>
-      <c r="B119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" t="s">
-        <v>103</v>
-      </c>
-      <c r="D119" t="s">
-        <v>130</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920267</v>
-      </c>
-      <c r="B120" t="s">
-        <v>78</v>
-      </c>
-      <c r="C120" t="s">
-        <v>103</v>
-      </c>
-      <c r="D120" t="s">
-        <v>130</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920267</v>
-      </c>
-      <c r="B121" t="s">
-        <v>78</v>
-      </c>
-      <c r="C121" t="s">
-        <v>103</v>
-      </c>
-      <c r="D121" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920266</v>
-      </c>
-      <c r="B122" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" t="s">
-        <v>103</v>
-      </c>
-      <c r="D122" t="s">
-        <v>131</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920266</v>
-      </c>
-      <c r="B123" t="s">
-        <v>78</v>
-      </c>
-      <c r="C123" t="s">
-        <v>103</v>
-      </c>
-      <c r="D123" t="s">
-        <v>131</v>
-      </c>
-      <c r="E123" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920266</v>
-      </c>
-      <c r="B124" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124" t="s">
-        <v>103</v>
-      </c>
-      <c r="D124" t="s">
-        <v>131</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920266</v>
-      </c>
-      <c r="B125" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" t="s">
-        <v>103</v>
-      </c>
-      <c r="D125" t="s">
-        <v>131</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920266</v>
-      </c>
-      <c r="B126" t="s">
-        <v>78</v>
-      </c>
-      <c r="C126" t="s">
-        <v>103</v>
-      </c>
-      <c r="D126" t="s">
-        <v>131</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920266</v>
-      </c>
-      <c r="B127" t="s">
-        <v>78</v>
-      </c>
-      <c r="C127" t="s">
-        <v>103</v>
-      </c>
-      <c r="D127" t="s">
-        <v>131</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920402</v>
-      </c>
-      <c r="B128" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" t="s">
-        <v>104</v>
-      </c>
-      <c r="D128" t="s">
-        <v>132</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920402</v>
-      </c>
-      <c r="B129" t="s">
-        <v>79</v>
-      </c>
-      <c r="C129" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" t="s">
-        <v>132</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920402</v>
-      </c>
-      <c r="B130" t="s">
-        <v>79</v>
-      </c>
-      <c r="C130" t="s">
-        <v>104</v>
-      </c>
-      <c r="D130" t="s">
-        <v>132</v>
-      </c>
-      <c r="E130" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920402</v>
-      </c>
-      <c r="B131" t="s">
-        <v>79</v>
-      </c>
-      <c r="C131" t="s">
-        <v>104</v>
-      </c>
-      <c r="D131" t="s">
-        <v>132</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920402</v>
-      </c>
-      <c r="B132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D132" t="s">
-        <v>132</v>
-      </c>
-      <c r="E132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920402</v>
-      </c>
-      <c r="B133" t="s">
-        <v>79</v>
-      </c>
-      <c r="C133" t="s">
-        <v>104</v>
-      </c>
-      <c r="D133" t="s">
-        <v>132</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920400</v>
-      </c>
-      <c r="B134" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" t="s">
-        <v>105</v>
-      </c>
-      <c r="D134" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920400</v>
-      </c>
-      <c r="B135" t="s">
-        <v>80</v>
-      </c>
-      <c r="C135" t="s">
-        <v>105</v>
-      </c>
-      <c r="D135" t="s">
-        <v>133</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920400</v>
-      </c>
-      <c r="B136" t="s">
-        <v>80</v>
-      </c>
-      <c r="C136" t="s">
-        <v>105</v>
-      </c>
-      <c r="D136" t="s">
-        <v>133</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920400</v>
-      </c>
-      <c r="B137" t="s">
-        <v>80</v>
-      </c>
-      <c r="C137" t="s">
-        <v>105</v>
-      </c>
-      <c r="D137" t="s">
-        <v>133</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920400</v>
-      </c>
-      <c r="B138" t="s">
-        <v>80</v>
-      </c>
-      <c r="C138" t="s">
-        <v>105</v>
-      </c>
-      <c r="D138" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920400</v>
-      </c>
-      <c r="B139" t="s">
-        <v>80</v>
-      </c>
-      <c r="C139" t="s">
-        <v>105</v>
-      </c>
-      <c r="D139" t="s">
-        <v>133</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920403</v>
-      </c>
-      <c r="B140" t="s">
-        <v>81</v>
-      </c>
-      <c r="C140" t="s">
-        <v>64</v>
-      </c>
-      <c r="D140" t="s">
-        <v>134</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920403</v>
-      </c>
-      <c r="B141" t="s">
-        <v>81</v>
-      </c>
-      <c r="C141" t="s">
-        <v>64</v>
-      </c>
-      <c r="D141" t="s">
-        <v>134</v>
-      </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920403</v>
-      </c>
-      <c r="B142" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" t="s">
-        <v>64</v>
-      </c>
-      <c r="D142" t="s">
-        <v>134</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920403</v>
-      </c>
-      <c r="B143" t="s">
-        <v>81</v>
-      </c>
-      <c r="C143" t="s">
-        <v>64</v>
-      </c>
-      <c r="D143" t="s">
-        <v>134</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920403</v>
-      </c>
-      <c r="B144" t="s">
-        <v>81</v>
-      </c>
-      <c r="C144" t="s">
-        <v>64</v>
-      </c>
-      <c r="D144" t="s">
-        <v>134</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920403</v>
-      </c>
-      <c r="B145" t="s">
-        <v>81</v>
-      </c>
-      <c r="C145" t="s">
-        <v>64</v>
-      </c>
-      <c r="D145" t="s">
-        <v>134</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920348</v>
-      </c>
-      <c r="B146" t="s">
-        <v>82</v>
-      </c>
-      <c r="C146" t="s">
-        <v>106</v>
-      </c>
-      <c r="D146" t="s">
-        <v>135</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920348</v>
-      </c>
-      <c r="B147" t="s">
-        <v>82</v>
-      </c>
-      <c r="C147" t="s">
-        <v>106</v>
-      </c>
-      <c r="D147" t="s">
-        <v>135</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920348</v>
-      </c>
-      <c r="B148" t="s">
-        <v>82</v>
-      </c>
-      <c r="C148" t="s">
-        <v>106</v>
-      </c>
-      <c r="D148" t="s">
-        <v>135</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920348</v>
-      </c>
-      <c r="B149" t="s">
-        <v>82</v>
-      </c>
-      <c r="C149" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" t="s">
-        <v>135</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920348</v>
-      </c>
-      <c r="B150" t="s">
-        <v>82</v>
-      </c>
-      <c r="C150" t="s">
-        <v>106</v>
-      </c>
-      <c r="D150" t="s">
-        <v>135</v>
-      </c>
-      <c r="E150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920348</v>
-      </c>
-      <c r="B151" t="s">
-        <v>82</v>
-      </c>
-      <c r="C151" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" t="s">
-        <v>135</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920405</v>
-      </c>
-      <c r="B152" t="s">
-        <v>83</v>
-      </c>
-      <c r="C152" t="s">
-        <v>107</v>
-      </c>
-      <c r="D152" t="s">
-        <v>136</v>
-      </c>
-      <c r="E152" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920405</v>
-      </c>
-      <c r="B153" t="s">
-        <v>83</v>
-      </c>
-      <c r="C153" t="s">
-        <v>107</v>
-      </c>
-      <c r="D153" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920405</v>
-      </c>
-      <c r="B154" t="s">
-        <v>83</v>
-      </c>
-      <c r="C154" t="s">
-        <v>107</v>
-      </c>
-      <c r="D154" t="s">
-        <v>136</v>
-      </c>
-      <c r="E154" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920405</v>
-      </c>
-      <c r="B155" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" t="s">
-        <v>107</v>
-      </c>
-      <c r="D155" t="s">
-        <v>136</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920405</v>
-      </c>
-      <c r="B156" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" t="s">
-        <v>107</v>
-      </c>
-      <c r="D156" t="s">
-        <v>136</v>
-      </c>
-      <c r="E156" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920405</v>
-      </c>
-      <c r="B157" t="s">
-        <v>83</v>
-      </c>
-      <c r="C157" t="s">
-        <v>107</v>
-      </c>
-      <c r="D157" t="s">
-        <v>136</v>
-      </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920406</v>
-      </c>
-      <c r="B158" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" t="s">
-        <v>108</v>
-      </c>
-      <c r="D158" t="s">
-        <v>137</v>
-      </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920406</v>
-      </c>
-      <c r="B159" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" t="s">
-        <v>108</v>
-      </c>
-      <c r="D159" t="s">
-        <v>137</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920406</v>
-      </c>
-      <c r="B160" t="s">
-        <v>84</v>
-      </c>
-      <c r="C160" t="s">
-        <v>108</v>
-      </c>
-      <c r="D160" t="s">
-        <v>137</v>
-      </c>
-      <c r="E160" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920406</v>
-      </c>
-      <c r="B161" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" t="s">
-        <v>108</v>
-      </c>
-      <c r="D161" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920406</v>
-      </c>
-      <c r="B162" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" t="s">
-        <v>108</v>
-      </c>
-      <c r="D162" t="s">
-        <v>137</v>
-      </c>
-      <c r="E162" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920406</v>
-      </c>
-      <c r="B163" t="s">
-        <v>84</v>
-      </c>
-      <c r="C163" t="s">
-        <v>108</v>
-      </c>
-      <c r="D163" t="s">
-        <v>137</v>
-      </c>
-      <c r="E163" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920407</v>
-      </c>
-      <c r="B164" t="s">
-        <v>85</v>
-      </c>
-      <c r="C164" t="s">
-        <v>87</v>
-      </c>
-      <c r="D164" t="s">
-        <v>138</v>
-      </c>
-      <c r="E164" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920407</v>
-      </c>
-      <c r="B165" t="s">
-        <v>85</v>
-      </c>
-      <c r="C165" t="s">
-        <v>87</v>
-      </c>
-      <c r="D165" t="s">
-        <v>138</v>
-      </c>
-      <c r="E165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920407</v>
-      </c>
-      <c r="B166" t="s">
-        <v>85</v>
-      </c>
-      <c r="C166" t="s">
-        <v>87</v>
-      </c>
-      <c r="D166" t="s">
-        <v>138</v>
-      </c>
-      <c r="E166" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920407</v>
-      </c>
-      <c r="B167" t="s">
-        <v>85</v>
-      </c>
-      <c r="C167" t="s">
-        <v>87</v>
-      </c>
-      <c r="D167" t="s">
-        <v>138</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920407</v>
-      </c>
-      <c r="B168" t="s">
-        <v>85</v>
-      </c>
-      <c r="C168" t="s">
-        <v>87</v>
-      </c>
-      <c r="D168" t="s">
-        <v>138</v>
-      </c>
-      <c r="E168" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920407</v>
-      </c>
-      <c r="B169" t="s">
-        <v>85</v>
-      </c>
-      <c r="C169" t="s">
-        <v>87</v>
-      </c>
-      <c r="D169" t="s">
-        <v>138</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920408</v>
-      </c>
-      <c r="B170" t="s">
-        <v>86</v>
-      </c>
-      <c r="C170" t="s">
-        <v>72</v>
-      </c>
-      <c r="D170" t="s">
-        <v>139</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920408</v>
-      </c>
-      <c r="B171" t="s">
-        <v>86</v>
-      </c>
-      <c r="C171" t="s">
-        <v>72</v>
-      </c>
-      <c r="D171" t="s">
-        <v>139</v>
-      </c>
-      <c r="E171" t="s">
-        <v>5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920408</v>
-      </c>
-      <c r="B172" t="s">
-        <v>86</v>
-      </c>
-      <c r="C172" t="s">
-        <v>72</v>
-      </c>
-      <c r="D172" t="s">
-        <v>139</v>
-      </c>
-      <c r="E172" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920408</v>
-      </c>
-      <c r="B173" t="s">
-        <v>86</v>
-      </c>
-      <c r="C173" t="s">
-        <v>72</v>
-      </c>
-      <c r="D173" t="s">
-        <v>139</v>
-      </c>
-      <c r="E173" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920408</v>
-      </c>
-      <c r="B174" t="s">
-        <v>86</v>
-      </c>
-      <c r="C174" t="s">
-        <v>72</v>
-      </c>
-      <c r="D174" t="s">
-        <v>139</v>
-      </c>
-      <c r="E174" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920408</v>
-      </c>
-      <c r="B175" t="s">
-        <v>86</v>
-      </c>
-      <c r="C175" t="s">
-        <v>72</v>
-      </c>
-      <c r="D175" t="s">
-        <v>139</v>
-      </c>
-      <c r="E175" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920409</v>
-      </c>
-      <c r="B176" t="s">
-        <v>87</v>
-      </c>
-      <c r="C176" t="s">
-        <v>91</v>
-      </c>
-      <c r="D176" t="s">
-        <v>140</v>
-      </c>
-      <c r="E176" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920409</v>
-      </c>
-      <c r="B177" t="s">
-        <v>87</v>
-      </c>
-      <c r="C177" t="s">
-        <v>91</v>
-      </c>
-      <c r="D177" t="s">
-        <v>140</v>
-      </c>
-      <c r="E177" t="s">
-        <v>5</v>
-      </c>
-      <c r="F177" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920409</v>
-      </c>
-      <c r="B178" t="s">
-        <v>87</v>
-      </c>
-      <c r="C178" t="s">
-        <v>91</v>
-      </c>
-      <c r="D178" t="s">
-        <v>140</v>
-      </c>
-      <c r="E178" t="s">
-        <v>7</v>
-      </c>
-      <c r="F178" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920409</v>
-      </c>
-      <c r="B179" t="s">
-        <v>87</v>
-      </c>
-      <c r="C179" t="s">
-        <v>91</v>
-      </c>
-      <c r="D179" t="s">
-        <v>140</v>
-      </c>
-      <c r="E179" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920409</v>
-      </c>
-      <c r="B180" t="s">
-        <v>87</v>
-      </c>
-      <c r="C180" t="s">
-        <v>91</v>
-      </c>
-      <c r="D180" t="s">
-        <v>140</v>
-      </c>
-      <c r="E180" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920409</v>
-      </c>
-      <c r="B181" t="s">
-        <v>87</v>
-      </c>
-      <c r="C181" t="s">
-        <v>91</v>
-      </c>
-      <c r="D181" t="s">
-        <v>140</v>
-      </c>
-      <c r="E181" t="s">
-        <v>8</v>
-      </c>
-      <c r="F181" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920411</v>
-      </c>
-      <c r="B182" t="s">
-        <v>87</v>
-      </c>
-      <c r="C182" t="s">
-        <v>109</v>
-      </c>
-      <c r="D182" t="s">
-        <v>141</v>
-      </c>
-      <c r="E182" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920411</v>
-      </c>
-      <c r="B183" t="s">
-        <v>87</v>
-      </c>
-      <c r="C183" t="s">
-        <v>109</v>
-      </c>
-      <c r="D183" t="s">
-        <v>141</v>
-      </c>
-      <c r="E183" t="s">
-        <v>5</v>
-      </c>
-      <c r="F183" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920411</v>
-      </c>
-      <c r="B184" t="s">
-        <v>87</v>
-      </c>
-      <c r="C184" t="s">
-        <v>109</v>
-      </c>
-      <c r="D184" t="s">
-        <v>141</v>
-      </c>
-      <c r="E184" t="s">
-        <v>7</v>
-      </c>
-      <c r="F184" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920411</v>
-      </c>
-      <c r="B185" t="s">
-        <v>87</v>
-      </c>
-      <c r="C185" t="s">
-        <v>109</v>
-      </c>
-      <c r="D185" t="s">
-        <v>141</v>
-      </c>
-      <c r="E185" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920411</v>
-      </c>
-      <c r="B186" t="s">
-        <v>87</v>
-      </c>
-      <c r="C186" t="s">
-        <v>109</v>
-      </c>
-      <c r="D186" t="s">
-        <v>141</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920411</v>
-      </c>
-      <c r="B187" t="s">
-        <v>87</v>
-      </c>
-      <c r="C187" t="s">
-        <v>109</v>
-      </c>
-      <c r="D187" t="s">
-        <v>141</v>
-      </c>
-      <c r="E187" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920412</v>
-      </c>
-      <c r="B188" t="s">
-        <v>88</v>
-      </c>
-      <c r="C188" t="s">
-        <v>87</v>
-      </c>
-      <c r="D188" t="s">
-        <v>142</v>
-      </c>
-      <c r="E188" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920412</v>
-      </c>
-      <c r="B189" t="s">
-        <v>88</v>
-      </c>
-      <c r="C189" t="s">
-        <v>87</v>
-      </c>
-      <c r="D189" t="s">
-        <v>142</v>
-      </c>
-      <c r="E189" t="s">
-        <v>5</v>
-      </c>
-      <c r="F189" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920412</v>
-      </c>
-      <c r="B190" t="s">
-        <v>88</v>
-      </c>
-      <c r="C190" t="s">
-        <v>87</v>
-      </c>
-      <c r="D190" t="s">
-        <v>142</v>
-      </c>
-      <c r="E190" t="s">
-        <v>7</v>
-      </c>
-      <c r="F190" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920412</v>
-      </c>
-      <c r="B191" t="s">
-        <v>88</v>
-      </c>
-      <c r="C191" t="s">
-        <v>87</v>
-      </c>
-      <c r="D191" t="s">
-        <v>142</v>
-      </c>
-      <c r="E191" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920412</v>
-      </c>
-      <c r="B192" t="s">
-        <v>88</v>
-      </c>
-      <c r="C192" t="s">
-        <v>87</v>
-      </c>
-      <c r="D192" t="s">
-        <v>142</v>
-      </c>
-      <c r="E192" t="s">
-        <v>6</v>
-      </c>
-      <c r="F192" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920412</v>
-      </c>
-      <c r="B193" t="s">
-        <v>88</v>
-      </c>
-      <c r="C193" t="s">
-        <v>87</v>
-      </c>
-      <c r="D193" t="s">
-        <v>142</v>
-      </c>
-      <c r="E193" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920414</v>
-      </c>
-      <c r="B194" t="s">
-        <v>89</v>
-      </c>
-      <c r="C194" t="s">
-        <v>110</v>
-      </c>
-      <c r="D194" t="s">
-        <v>143</v>
-      </c>
-      <c r="E194" t="s">
-        <v>10</v>
-      </c>
-      <c r="F194" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920414</v>
-      </c>
-      <c r="B195" t="s">
-        <v>89</v>
-      </c>
-      <c r="C195" t="s">
-        <v>110</v>
-      </c>
-      <c r="D195" t="s">
-        <v>143</v>
-      </c>
-      <c r="E195" t="s">
-        <v>5</v>
-      </c>
-      <c r="F195" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920414</v>
-      </c>
-      <c r="B196" t="s">
-        <v>89</v>
-      </c>
-      <c r="C196" t="s">
-        <v>110</v>
-      </c>
-      <c r="D196" t="s">
-        <v>143</v>
-      </c>
-      <c r="E196" t="s">
-        <v>7</v>
-      </c>
-      <c r="F196" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920414</v>
-      </c>
-      <c r="B197" t="s">
-        <v>89</v>
-      </c>
-      <c r="C197" t="s">
-        <v>110</v>
-      </c>
-      <c r="D197" t="s">
-        <v>143</v>
-      </c>
-      <c r="E197" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>19330051920414</v>
-      </c>
-      <c r="B198" t="s">
-        <v>89</v>
-      </c>
-      <c r="C198" t="s">
-        <v>110</v>
-      </c>
-      <c r="D198" t="s">
-        <v>143</v>
-      </c>
-      <c r="E198" t="s">
-        <v>6</v>
-      </c>
-      <c r="F198" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>19330051920414</v>
-      </c>
-      <c r="B199" t="s">
-        <v>89</v>
-      </c>
-      <c r="C199" t="s">
-        <v>110</v>
-      </c>
-      <c r="D199" t="s">
-        <v>143</v>
-      </c>
-      <c r="E199" t="s">
-        <v>8</v>
-      </c>
-      <c r="F199" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7759,13 +4699,13 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7776,523 +4716,523 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920248</v>
+        <v>19330051920252</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920249</v>
+        <v>19330051920265</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920250</v>
+        <v>19330051920411</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920251</v>
+        <v>19330051920412</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920252</v>
+        <v>19330051920259</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920253</v>
+        <v>19330051920261</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920433</v>
+        <v>19330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920256</v>
+        <v>19330051920260</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920254</v>
+        <v>19330051920408</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920258</v>
+        <v>19330051920409</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920257</v>
+        <v>19330051920253</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920259</v>
+        <v>19330051920433</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920255</v>
+        <v>19330051920256</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920260</v>
+        <v>19330051920258</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920263</v>
+        <v>19330051920400</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920261</v>
+        <v>19330051920403</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920265</v>
+        <v>19330051920407</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920267</v>
+        <v>19330051920248</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>130</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920266</v>
+        <v>19330051920249</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920402</v>
+        <v>19330051920250</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>132</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920400</v>
+        <v>19330051920254</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>133</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920403</v>
+        <v>19330051920257</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
         <v>134</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920348</v>
+        <v>19330051920255</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
         <v>135</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920405</v>
+        <v>19330051920263</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>136</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920406</v>
+        <v>19330051920267</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
         <v>137</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920407</v>
+        <v>19330051920266</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
         <v>138</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920408</v>
+        <v>19330051920402</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>139</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920409</v>
+        <v>19330051920348</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920411</v>
+        <v>19330051920405</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
         <v>141</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920412</v>
+        <v>19330051920406</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
         <v>142</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8300,16 +5240,16 @@
         <v>19330051920414</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
         <v>143</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8319,7 +5259,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8354,39 +5294,39 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920433</v>
+        <v>19330051920256</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920433</v>
+        <v>19330051920256</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -8400,19 +5340,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920256</v>
+        <v>19330051920258</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -8423,16 +5363,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920256</v>
+        <v>19330051920258</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -8446,16 +5386,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920258</v>
+        <v>19330051920257</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -8469,16 +5409,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920258</v>
+        <v>19330051920257</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -8487,44 +5427,44 @@
         <v>54</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920257</v>
+        <v>19330051920407</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920257</v>
+        <v>19330051920407</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -8533,27 +5473,27 @@
         <v>54</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920348</v>
+        <v>19330051920250</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -8561,22 +5501,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920348</v>
+        <v>19330051920253</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -8584,22 +5524,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920407</v>
+        <v>19330051920433</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -8607,16 +5547,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920407</v>
+        <v>19330051920254</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -8625,329 +5565,76 @@
         <v>54</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920414</v>
+        <v>19330051920403</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920414</v>
+        <v>19330051920348</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920248</v>
+        <v>19330051920414</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920249</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920250</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920253</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920254</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920255</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920263</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920266</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920402</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920403</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>19330051920405</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>19330051920406</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
